--- a/com.Ecommerce/src/main/resources/Documents/RegisterData.xlsx
+++ b/com.Ecommerce/src/main/resources/Documents/RegisterData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\selenium qspider\com.Ecommerce\src\main\resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neha Soni\git\repository\com.Ecommerce\src\main\resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49642C45-9741-41B6-865A-0BD502B91C39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEB1A6-D114-4AB8-814A-405D278897DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Gender</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -101,36 +98,6 @@
   </si>
   <si>
     <t>Martinez</t>
-  </si>
-  <si>
-    <t>user1@example.com</t>
-  </si>
-  <si>
-    <t>user2@example.com</t>
-  </si>
-  <si>
-    <t>user3@example.com</t>
-  </si>
-  <si>
-    <t>user4@example.com</t>
-  </si>
-  <si>
-    <t>user5@example.com</t>
-  </si>
-  <si>
-    <t>user6@example.com</t>
-  </si>
-  <si>
-    <t>user7@example.com</t>
-  </si>
-  <si>
-    <t>user8@example.com</t>
-  </si>
-  <si>
-    <t>user9@example.com</t>
-  </si>
-  <si>
-    <t>user10@example.com</t>
   </si>
   <si>
     <t>Pass1word!</t>
@@ -562,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,178 +550,145 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
